--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3490.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3490.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8840621296324696</v>
+        <v>1.075645208358765</v>
       </c>
       <c r="B1">
-        <v>1.378213034621804</v>
+        <v>3.772316932678223</v>
       </c>
       <c r="C1">
-        <v>3.434088057592157</v>
+        <v>3.345948457717896</v>
       </c>
       <c r="D1">
-        <v>6.223115716547241</v>
+        <v>2.772963285446167</v>
       </c>
       <c r="E1">
-        <v>2.08560694828093</v>
+        <v>1.734041452407837</v>
       </c>
     </row>
   </sheetData>
